--- a/top_50_items_amount.xlsx
+++ b/top_50_items_amount.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="72">
   <si>
     <t>itemDescription</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Classification</t>
   </si>
   <si>
+    <t>Link</t>
+  </si>
+  <si>
     <t>whole milk</t>
   </si>
   <si>
@@ -44,6 +47,9 @@
   </si>
   <si>
     <t>dairy</t>
+  </si>
+  <si>
+    <t>https://www.countdown.co.nz/shop/productdetails?stockcode=958228&amp;name=puhoi-valley-milk-organic-homogenised-whole</t>
   </si>
   <si>
     <t>rolls/buns</t>
@@ -231,9 +237,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
@@ -275,21 +281,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -297,9 +288,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,16 +303,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -346,6 +336,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -359,14 +365,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -374,16 +372,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,12 +395,20 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -413,6 +419,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -425,175 +443,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,17 +646,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,6 +663,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,11 +710,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,23 +720,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,139 +731,139 @@
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1225,22 +1231,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="22.453125" customWidth="1"/>
     <col min="2" max="3" width="12.2734375" customWidth="1"/>
     <col min="4" max="4" width="4.6875" customWidth="1"/>
     <col min="5" max="5" width="23.7265625" customWidth="1"/>
     <col min="6" max="6" width="11.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1259,10 +1266,13 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>2502</v>
@@ -1271,18 +1281,21 @@
         <v>500</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>1716</v>
@@ -1291,18 +1304,18 @@
         <v>200</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>1600</v>
@@ -1311,15 +1324,15 @@
         <v>200</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>1514</v>
@@ -1328,18 +1341,18 @@
         <v>200</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>1334</v>
@@ -1348,18 +1361,18 @@
         <v>200</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>1071</v>
@@ -1368,15 +1381,15 @@
         <v>500</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>1032</v>
@@ -1385,15 +1398,15 @@
         <v>200</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>933</v>
@@ -1402,18 +1415,18 @@
         <v>500</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>924</v>
@@ -1422,18 +1435,18 @@
         <v>200</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>812</v>
@@ -1442,15 +1455,15 @@
         <v>200</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12">
         <v>785</v>
@@ -1459,18 +1472,18 @@
         <v>150</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13">
         <v>744</v>
@@ -1479,15 +1492,15 @@
         <v>200</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14">
         <v>717</v>
@@ -1496,18 +1509,18 @@
         <v>330</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B15">
         <v>687</v>
@@ -1516,18 +1529,18 @@
         <v>330</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B16">
         <v>662</v>
@@ -1536,15 +1549,15 @@
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17">
         <v>580</v>
@@ -1553,18 +1566,18 @@
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B18">
         <v>571</v>
@@ -1573,18 +1586,18 @@
         <v>200</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B19">
         <v>566</v>
@@ -1593,15 +1606,15 @@
         <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20">
         <v>566</v>
@@ -1610,15 +1623,15 @@
         <v>200</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21">
         <v>534</v>
@@ -1627,18 +1640,18 @@
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B22">
         <v>518</v>
@@ -1647,18 +1660,18 @@
         <v>250</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B23">
         <v>516</v>
@@ -1667,15 +1680,15 @@
         <v>200</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B24">
         <v>514</v>
@@ -1684,15 +1697,15 @@
         <v>200</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B25">
         <v>491</v>
@@ -1701,18 +1714,18 @@
         <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B26">
         <v>476</v>
@@ -1721,15 +1734,15 @@
         <v>220</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B27">
         <v>425</v>
@@ -1738,15 +1751,15 @@
         <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B28">
         <v>422</v>
@@ -1755,15 +1768,15 @@
         <v>200</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B29">
         <v>362</v>
@@ -1772,18 +1785,18 @@
         <v>200</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B30">
         <v>358</v>
@@ -1792,18 +1805,18 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B31">
         <v>357</v>
@@ -1812,18 +1825,18 @@
         <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B32">
         <v>356</v>
@@ -1832,18 +1845,18 @@
         <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B33">
         <v>327</v>
@@ -1852,15 +1865,15 @@
         <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B34">
         <v>327</v>
@@ -1869,15 +1882,15 @@
         <v>80</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B35">
         <v>323</v>
@@ -1886,18 +1899,18 @@
         <v>500</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B36">
         <v>305</v>
@@ -1906,15 +1919,15 @@
         <v>100</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B37">
         <v>283</v>
@@ -1923,15 +1936,15 @@
         <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B38">
         <v>280</v>
@@ -1940,15 +1953,15 @@
         <v>150</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B39">
         <v>265</v>
@@ -1957,18 +1970,18 @@
         <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B40">
         <v>263</v>
@@ -1977,18 +1990,18 @@
         <v>100</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B41">
         <v>256</v>
@@ -1997,15 +2010,15 @@
         <v>100</v>
       </c>
       <c r="D41" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B42">
         <v>254</v>
@@ -2014,15 +2027,15 @@
         <v>200</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B43">
         <v>252</v>
@@ -2031,15 +2044,15 @@
         <v>250</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B44">
         <v>240</v>
@@ -2048,18 +2061,18 @@
         <v>50</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B45">
         <v>238</v>
@@ -2068,18 +2081,18 @@
         <v>220</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B46">
         <v>227</v>
@@ -2088,18 +2101,18 @@
         <v>150</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>225</v>
@@ -2108,15 +2121,15 @@
         <v>100</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B48">
         <v>220</v>
@@ -2125,18 +2138,18 @@
         <v>50</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B49">
         <v>220</v>
@@ -2145,15 +2158,15 @@
         <v>200</v>
       </c>
       <c r="D49" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B50">
         <v>219</v>
@@ -2162,18 +2175,18 @@
         <v>50</v>
       </c>
       <c r="D50" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B51">
         <v>212</v>
@@ -2182,18 +2195,18 @@
         <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" ht="16.8" spans="1:5">
       <c r="A52" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B52">
         <v>118</v>
@@ -2202,10 +2215,10 @@
         <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
